--- a/medicine/Enfance/Christophe_Lemoine_(scénariste)/Christophe_Lemoine_(scénariste).xlsx
+++ b/medicine/Enfance/Christophe_Lemoine_(scénariste)/Christophe_Lemoine_(scénariste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christophe_Lemoine_(sc%C3%A9nariste)</t>
+          <t>Christophe_Lemoine_(scénariste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christophe Lemoine, né le 21 avril 1966 à Casablanca[1], est un scénariste, réalisateur, acteur, scénariste de bande dessinée et un écrivain de littérature de jeunesse français. Il intervient aussi régulièrement comme script doctor[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophe Lemoine, né le 21 avril 1966 à Casablanca, est un scénariste, réalisateur, acteur, scénariste de bande dessinée et un écrivain de littérature de jeunesse français. Il intervient aussi régulièrement comme script doctor.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christophe_Lemoine_(sc%C3%A9nariste)</t>
+          <t>Christophe_Lemoine_(scénariste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christophe Lemoine est né le 21 avril 1966 à Casablanca, et est arrivé en France à l’âge de 13 ans.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christophe_Lemoine_(sc%C3%A9nariste)</t>
+          <t>Christophe_Lemoine_(scénariste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,64 +558,261 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cinéma
-Scénariste
-2013 : Pop Redemption de Martin Le Gall : script doctor
-2015 : L'Œil du cyclone de Sékou Traoré[3]. Étalon de bronze du festival Fespaco 2015[4]
-2020 : Tijuana Bible de Jean-Charles Hue. Collaboration au scénario[5].
-Acteur
-1995 : La Cérémonie de Claude Chabrol : le vendeur de lunettes
-1995 : Élisa de Jean Becker : un homme dans le bal
-Courts-métrages
-1991 : Marche funèbre : scénariste, réalisateur
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2013 : Pop Redemption de Martin Le Gall : script doctor
+2015 : L'Œil du cyclone de Sékou Traoré. Étalon de bronze du festival Fespaco 2015
+2020 : Tijuana Bible de Jean-Charles Hue. Collaboration au scénario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christophe_Lemoine_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lemoine_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Acteur</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1995 : La Cérémonie de Claude Chabrol : le vendeur de lunettes
+1995 : Élisa de Jean Becker : un homme dans le bal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christophe_Lemoine_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lemoine_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Courts-métrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1991 : Marche funèbre : scénariste, réalisateur
 1997 : La troisième valise : scénariste, réalisateur
 2009 : Marteau ciseaux : scénariste, réalisateur, acteur
 2010 : Quidam de Gaël Naizet : acteur
 2012 : Nouvelle cuisine de Vincent Hazard : script doctor
-2013 : Nuisible de Tom Haugomat et Bruno Mangyoku : script doctor
-Télévision
-Scénariste
-2019 : Helvetica de Romain Graf : story editor[6]. Prix de la meilleure fiction francophone étrangère au Festival de la fiction TV de La Rochelle 2019
-2021 : Fin Ar Bed saison 2 de Nicolas Leborgne[7].
-2022 : La Vie devant de Frédéric Recrosio, Klaudia Reynicke et  Kristina Wagenbauer : Collaboration au scénario[8].
-Acteur
-1996 : Les Liens du cœur de Josée Dayan
+2013 : Nuisible de Tom Haugomat et Bruno Mangyoku : script doctor</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christophe_Lemoine_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lemoine_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2019 : Helvetica de Romain Graf : story editor. Prix de la meilleure fiction francophone étrangère au Festival de la fiction TV de La Rochelle 2019
+2021 : Fin Ar Bed saison 2 de Nicolas Leborgne.
+2022 : La Vie devant de Frédéric Recrosio, Klaudia Reynicke et  Kristina Wagenbauer : Collaboration au scénario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Christophe_Lemoine_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lemoine_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Acteur</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1996 : Les Liens du cœur de Josée Dayan
 1998 : Louise et les Marchés de Marc Rivière : l'adjoint au maire
-1999 : La Voleuse de Saint-Lubin de Claire Devers : un policier
-Web
-Scénariste
-2016 : Coquilles de Benjamin Botella et Tom Roginski [9]. Série d'animation avec les voix de Elie Semoun et Bruno Salomone</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Christophe_Lemoine_(sc%C3%A9nariste)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christophe_Lemoine_(sc%C3%A9nariste)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+1999 : La Voleuse de Saint-Lubin de Claire Devers : un policier</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Christophe_Lemoine_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lemoine_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2016 : Coquilles de Benjamin Botella et Tom Roginski . Série d'animation avec les voix de Elie Semoun et Bruno Salomone</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Christophe_Lemoine_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lemoine_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bandes dessinées
-Jacquou le Croquant[10],[11], d'après l'œuvre éponyme de Eugène Le Roy, dessins de Cécile, Vents d'Ouest, 2015  (ISBN 978-2-7493-0776-3)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Jacquou le Croquant d'après l'œuvre éponyme de Eugène Le Roy, dessins de Cécile, Vents d'Ouest, 2015  (ISBN 978-2-7493-0776-3)
 Poil de Carotte, d'après l'œuvre éponyme de Jules Renard, dessins de Cécile, Vents d'Ouest, 2014  (ISBN 978-2-7493-0732-9)
 Clara, dessins de Cécile, Le Lombard, 2012  (ISBN 978-2-8036-3071-4)
 La Guerre des boutons, d'après l'œuvre éponyme de Louis Pergaud, dessins de Cécile, Vents d'Ouest, 2012  (ISBN 978-2-7493-0664-3)
@@ -614,40 +825,76 @@
 L'Odyssée, d'après l'œuvre éponyme d'Homère, dessins de Miguel Lalor, Glénat, collection Les Incontournables de la BD, 2010  (ISBN 978-2-357-10091-6)
 Robinson Crusoé, d'après l'œuvre éponyme de Daniel Defoe, dessins de Jean-Christophe Vergne, Glénat, collection Les Incontournables de la BD, 2007  (ISBN 978-995-349-302-2)
 Les trois imposteurs, dessins de Jean-Marie Woehrel, Glénat, collection La Loge noire
-Le Réveil du Serpent[12], 2005  (ISBN 2-7234-4908-4)
-Les Voies de l'hérésie, 2006  (ISBN 2-7234-5280-8)
-Littérature jeunesse
-Tout… sauf mon Père Milan Poche Cadet +, illustrations de Stanislas Barthélémy  (ISBN 978-2-7459-3509-0), 2008
+Le Réveil du Serpent, 2005  (ISBN 2-7234-4908-4)
+Les Voies de l'hérésie, 2006  (ISBN 2-7234-5280-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Christophe_Lemoine_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lemoine_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tout… sauf mon Père Milan Poche Cadet +, illustrations de Stanislas Barthélémy  (ISBN 978-2-7459-3509-0), 2008
 Nulman, Thierry Magnier Petite Poche  (ISBN 978-2-84420-353-3), 2005
 Sur la Piste du Grand Chef, Milan Poche Cadet, illustrations de Boiry  (ISBN 978-2-7459-3171-9), 2004</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Christophe_Lemoine_(sc%C3%A9nariste)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christophe_Lemoine_(sc%C3%A9nariste)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Christophe_Lemoine_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lemoine_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Prix Latulu 2015 pour Poil de Carotte
 Prix de la Ligue de l'Enseignement au festival BD Boum de Blois 2012 pour Clara
